--- a/Project Onix.xlsx
+++ b/Project Onix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/el-capitan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/el-capitan/Desktop/Onix/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="65">
   <si>
     <t>Type</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>November 15, 2018</t>
+  </si>
+  <si>
+    <t>May 16, 2018</t>
+  </si>
+  <si>
+    <t>May 18, 2018</t>
+  </si>
+  <si>
+    <t>June 13, 2018</t>
+  </si>
+  <si>
+    <t>June 17, 2018</t>
   </si>
 </sst>
 </file>
@@ -524,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I66"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,22 +1048,40 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>300</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C19" s="1">
         <v>20</v>
@@ -1060,13 +1090,13 @@
         <v>30</v>
       </c>
       <c r="E19" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>32</v>
@@ -1080,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C20" s="1">
         <v>20</v>
@@ -1089,7 +1119,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="1">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1109,22 +1139,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="1">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C21" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="1">
-        <v>0.16</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>32</v>
@@ -1138,22 +1168,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="1">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="1">
-        <v>0.16800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>32</v>
@@ -1167,22 +1197,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="1">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="C23" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="1">
-        <v>0.2</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>32</v>
@@ -1196,16 +1226,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="1">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="C24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="1">
-        <v>0.27500000000000002</v>
+        <v>0.125</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1222,10 +1252,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>125</v>
+        <v>137.5</v>
       </c>
       <c r="C25" s="1">
         <v>50</v>
@@ -1234,13 +1264,13 @@
         <v>30</v>
       </c>
       <c r="E25" s="1">
-        <v>0.125</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>32</v>
@@ -1251,19 +1281,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1">
-        <v>137.5</v>
+        <v>87.5</v>
       </c>
       <c r="C26" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="1">
-        <v>0.13750000000000001</v>
+        <v>8.7500000000000008E-2</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1283,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="1">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>35</v>
@@ -1292,7 +1322,7 @@
         <v>30</v>
       </c>
       <c r="E27" s="1">
-        <v>8.7500000000000008E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1309,10 +1339,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1">
         <v>35</v>
@@ -1321,7 +1351,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1341,7 +1371,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="1">
-        <v>98</v>
+        <v>99.75</v>
       </c>
       <c r="C29" s="1">
         <v>35</v>
@@ -1350,7 +1380,7 @@
         <v>30</v>
       </c>
       <c r="E29" s="1">
-        <v>9.8000000000000004E-2</v>
+        <v>9.9750000000000005E-2</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1367,10 +1397,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1">
-        <v>99.75</v>
+        <v>94.5</v>
       </c>
       <c r="C30" s="1">
         <v>35</v>
@@ -1379,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="E30" s="1">
-        <v>9.9750000000000005E-2</v>
+        <v>9.4500000000000001E-2</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1396,25 +1426,25 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
-        <v>94.5</v>
+        <v>288.75</v>
       </c>
       <c r="C31" s="1">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="1">
-        <v>9.4500000000000001E-2</v>
+        <v>0.28875000000000001</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>32</v>
@@ -1428,22 +1458,22 @@
         <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>288.75</v>
+        <v>96.25</v>
       </c>
       <c r="C32" s="1">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="1">
-        <v>0.28875000000000001</v>
+        <v>9.6250000000000002E-2</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>32</v>
@@ -1454,10 +1484,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>96.25</v>
+        <v>87.5</v>
       </c>
       <c r="C33" s="1">
         <v>35</v>
@@ -1466,7 +1496,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="1">
-        <v>9.6250000000000002E-2</v>
+        <v>8.7500000000000008E-2</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>
@@ -1486,22 +1516,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="1">
-        <v>87.5</v>
+        <v>280</v>
       </c>
       <c r="C34" s="1">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E34" s="1">
-        <v>8.7500000000000008E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>32</v>
@@ -1511,22 +1541,40 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>210</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="1">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
@@ -1535,13 +1583,13 @@
         <v>41</v>
       </c>
       <c r="E36" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>32</v>
@@ -1555,7 +1603,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="1">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -1564,13 +1612,13 @@
         <v>41</v>
       </c>
       <c r="E37" s="1">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>32</v>
@@ -1584,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -1593,13 +1641,13 @@
         <v>41</v>
       </c>
       <c r="E38" s="1">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -1613,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="1">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
@@ -1622,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="E39" s="1">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>32</v>
@@ -1639,10 +1687,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -1651,13 +1699,13 @@
         <v>41</v>
       </c>
       <c r="E40" s="1">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>32</v>
@@ -1671,22 +1719,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="1">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="C41" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="1">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>32</v>
@@ -1697,25 +1745,25 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="C42" s="1">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E42" s="1">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>32</v>
@@ -1729,22 +1777,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="1">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C43" s="1">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E43" s="1">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>32</v>
@@ -1754,48 +1802,84 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1">
+        <v>255</v>
+      </c>
+      <c r="C44" s="1">
+        <v>500</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1132.5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7550</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.1325000000000001</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="1">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E46" s="1">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>32</v>
@@ -1809,22 +1893,22 @@
         <v>9</v>
       </c>
       <c r="B47" s="1">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>500</v>
+        <v>2513.2646815456992</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>32</v>
@@ -1838,22 +1922,22 @@
         <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>255</v>
+        <v>480</v>
       </c>
       <c r="C48" s="1">
-        <v>500</v>
+        <v>1E-3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E48" s="1">
-        <v>0.255</v>
+        <v>0.48</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>32</v>
@@ -1864,25 +1948,25 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B49" s="1">
-        <v>1132.5</v>
+        <v>499</v>
       </c>
       <c r="C49" s="1">
-        <v>7550</v>
+        <v>1E-3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E49" s="1">
-        <v>1.1325000000000001</v>
+        <v>0.499</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>32</v>
@@ -1896,16 +1980,16 @@
         <v>9</v>
       </c>
       <c r="B50" s="1">
-        <v>110</v>
+        <v>450</v>
       </c>
       <c r="C50" s="1">
-        <v>1000</v>
+        <v>1E-3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E50" s="1">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>11</v>
@@ -1922,65 +2006,83 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="C51" s="1">
-        <v>2513.2646815456992</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>9.2000000000000009E-7</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2.7521999999999998E-3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2.7521999999999997E-6</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B53" s="1">
-        <v>480</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1">
-        <v>0.48</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>32</v>
@@ -1994,22 +2096,22 @@
         <v>25</v>
       </c>
       <c r="B54" s="1">
-        <v>499</v>
+        <v>1131.4349999999999</v>
       </c>
       <c r="C54" s="1">
-        <v>1E-3</v>
+        <v>15.66</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E54" s="1">
-        <v>0.499</v>
+        <v>1.131435</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>32</v>
@@ -2020,68 +2122,86 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B55" s="1">
-        <v>450</v>
+        <v>1963.3</v>
       </c>
       <c r="C55" s="1">
-        <v>1E-3</v>
+        <v>27.08</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E55" s="1">
-        <v>0.45</v>
+        <v>1.9633</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1">
+        <v>511</v>
+      </c>
+      <c r="C56" s="1">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B57" s="1">
-        <v>9.2000000000000003E-4</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E57" s="1">
-        <v>9.2000000000000009E-7</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>33</v>
@@ -2089,65 +2209,86 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1">
-        <v>2.7521999999999998E-3</v>
+        <v>550</v>
       </c>
       <c r="C58" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E58" s="1">
-        <v>2.7521999999999997E-6</v>
+        <f>B58*0.1%</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1">
+        <v>450</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" ref="E59:E65" si="0">B59*0.1%</f>
+        <v>0.45</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="1">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="C60" s="1">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E60" s="1">
-        <v>0.14000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>32</v>
@@ -2157,37 +2298,57 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1">
+        <v>350</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1">
-        <v>1131.4349999999999</v>
+        <v>300</v>
       </c>
       <c r="C62" s="1">
-        <v>15.66</v>
+        <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E62" s="1">
-        <v>1.131435</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>32</v>
@@ -2198,25 +2359,26 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B63" s="1">
-        <v>1963.3</v>
+        <v>300</v>
       </c>
       <c r="C63" s="1">
-        <v>27.08</v>
+        <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E63" s="1">
-        <v>1.9633</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>32</v>
@@ -2230,22 +2392,23 @@
         <v>9</v>
       </c>
       <c r="B64" s="1">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="C64" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E64" s="1">
-        <v>0.51100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>32</v>
@@ -2255,42 +2418,90 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1">
+        <v>275</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="1">
-        <v>7</v>
+        <v>1899.66</v>
       </c>
       <c r="C66" s="1">
-        <v>14</v>
+        <v>27.08</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E66" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1099.33</v>
+      </c>
+      <c r="C67" s="1">
+        <v>15.66</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Project Onix.xlsx
+++ b/Project Onix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="2680" windowWidth="26960" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="68">
   <si>
     <t>Type</t>
   </si>
@@ -219,12 +219,26 @@
   </si>
   <si>
     <t>June 17, 2018</t>
+  </si>
+  <si>
+    <t>BCH</t>
+  </si>
+  <si>
+    <t>XLM</t>
+  </si>
+  <si>
+    <t>Kraken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="173" formatCode="0.00000000"/>
+    <numFmt numFmtId="175" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -254,9 +268,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,19 +562,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
@@ -587,7 +614,7 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>50</v>
       </c>
       <c r="C2" s="1">
@@ -616,7 +643,7 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>100</v>
       </c>
       <c r="C3" s="1">
@@ -645,7 +672,7 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>100</v>
       </c>
       <c r="C4" s="1">
@@ -674,7 +701,7 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>100</v>
       </c>
       <c r="C5" s="1">
@@ -703,7 +730,7 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>50</v>
       </c>
       <c r="C6" s="1">
@@ -732,7 +759,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>100</v>
       </c>
       <c r="C7" s="1">
@@ -761,7 +788,7 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>50</v>
       </c>
       <c r="C8" s="1">
@@ -790,7 +817,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>50</v>
       </c>
       <c r="C9" s="1">
@@ -819,7 +846,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>218.51</v>
       </c>
       <c r="C10" s="1">
@@ -848,7 +875,7 @@
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>132.16</v>
       </c>
       <c r="C11" s="1">
@@ -877,7 +904,7 @@
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>86.35</v>
       </c>
       <c r="C12" s="1">
@@ -906,7 +933,7 @@
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>30</v>
       </c>
       <c r="C13" s="1">
@@ -935,7 +962,7 @@
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>20</v>
       </c>
       <c r="C14" s="1">
@@ -964,7 +991,7 @@
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>100</v>
       </c>
       <c r="C15" s="1">
@@ -993,7 +1020,7 @@
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>100</v>
       </c>
       <c r="C16" s="1">
@@ -1022,7 +1049,7 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>100</v>
       </c>
       <c r="C17" s="1">
@@ -1051,7 +1078,7 @@
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>300</v>
       </c>
       <c r="C18" s="1">
@@ -1080,7 +1107,7 @@
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>200</v>
       </c>
       <c r="C19" s="1">
@@ -1109,7 +1136,7 @@
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>160</v>
       </c>
       <c r="C20" s="1">
@@ -1138,7 +1165,7 @@
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>168</v>
       </c>
       <c r="C21" s="1">
@@ -1167,7 +1194,7 @@
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>200</v>
       </c>
       <c r="C22" s="1">
@@ -1196,7 +1223,7 @@
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>275</v>
       </c>
       <c r="C23" s="1">
@@ -1225,7 +1252,7 @@
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>125</v>
       </c>
       <c r="C24" s="1">
@@ -1254,7 +1281,7 @@
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>137.5</v>
       </c>
       <c r="C25" s="1">
@@ -1283,7 +1310,7 @@
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>87.5</v>
       </c>
       <c r="C26" s="1">
@@ -1312,7 +1339,7 @@
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>91</v>
       </c>
       <c r="C27" s="1">
@@ -1341,7 +1368,7 @@
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>98</v>
       </c>
       <c r="C28" s="1">
@@ -1370,7 +1397,7 @@
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>99.75</v>
       </c>
       <c r="C29" s="1">
@@ -1399,7 +1426,7 @@
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>94.5</v>
       </c>
       <c r="C30" s="1">
@@ -1428,7 +1455,7 @@
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>288.75</v>
       </c>
       <c r="C31" s="1">
@@ -1457,7 +1484,7 @@
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>96.25</v>
       </c>
       <c r="C32" s="1">
@@ -1486,7 +1513,7 @@
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>87.5</v>
       </c>
       <c r="C33" s="1">
@@ -1515,7 +1542,7 @@
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>280</v>
       </c>
       <c r="C34" s="1">
@@ -1544,7 +1571,7 @@
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>210</v>
       </c>
       <c r="C35" s="1">
@@ -1573,7 +1600,7 @@
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>150</v>
       </c>
       <c r="C36" s="1">
@@ -1602,7 +1629,7 @@
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>190</v>
       </c>
       <c r="C37" s="1">
@@ -1631,7 +1658,7 @@
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>160</v>
       </c>
       <c r="C38" s="1">
@@ -1660,7 +1687,7 @@
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>160</v>
       </c>
       <c r="C39" s="1">
@@ -1689,7 +1716,7 @@
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>200</v>
       </c>
       <c r="C40" s="1">
@@ -1718,7 +1745,7 @@
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <v>270</v>
       </c>
       <c r="C41" s="1">
@@ -1747,7 +1774,7 @@
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>320</v>
       </c>
       <c r="C42" s="1">
@@ -1776,7 +1803,7 @@
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <v>280</v>
       </c>
       <c r="C43" s="1">
@@ -1805,7 +1832,7 @@
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>255</v>
       </c>
       <c r="C44" s="1">
@@ -1834,7 +1861,7 @@
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>1132.5</v>
       </c>
       <c r="C45" s="1">
@@ -1863,7 +1890,7 @@
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>110</v>
       </c>
       <c r="C46" s="1">
@@ -1892,7 +1919,7 @@
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>0</v>
       </c>
       <c r="C47" s="1">
@@ -1921,7 +1948,7 @@
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>480</v>
       </c>
       <c r="C48" s="1">
@@ -1950,7 +1977,7 @@
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>499</v>
       </c>
       <c r="C49" s="1">
@@ -1979,7 +2006,7 @@
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <v>450</v>
       </c>
       <c r="C50" s="1">
@@ -2008,7 +2035,7 @@
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="3">
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="C51" s="1">
@@ -2037,7 +2064,7 @@
       <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <v>2.7521999999999998E-3</v>
       </c>
       <c r="C52" s="1">
@@ -2046,7 +2073,7 @@
       <c r="D52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="5">
         <v>2.7521999999999997E-6</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -2066,7 +2093,7 @@
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="3">
         <v>140</v>
       </c>
       <c r="C53" s="1">
@@ -2095,7 +2122,7 @@
       <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="3">
         <v>1131.4349999999999</v>
       </c>
       <c r="C54" s="1">
@@ -2124,7 +2151,7 @@
       <c r="A55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="3">
         <v>1963.3</v>
       </c>
       <c r="C55" s="1">
@@ -2153,7 +2180,7 @@
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="3">
         <v>511</v>
       </c>
       <c r="C56" s="1">
@@ -2182,7 +2209,7 @@
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="3">
         <v>7</v>
       </c>
       <c r="C57" s="1">
@@ -2211,7 +2238,7 @@
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="3">
         <v>550</v>
       </c>
       <c r="C58" s="1">
@@ -2241,7 +2268,7 @@
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>450</v>
       </c>
       <c r="C59" s="1">
@@ -2271,7 +2298,7 @@
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="3">
         <v>350</v>
       </c>
       <c r="C60" s="1">
@@ -2301,7 +2328,7 @@
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="3">
         <v>350</v>
       </c>
       <c r="C61" s="1">
@@ -2331,7 +2358,7 @@
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="3">
         <v>300</v>
       </c>
       <c r="C62" s="1">
@@ -2361,7 +2388,7 @@
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="3">
         <v>300</v>
       </c>
       <c r="C63" s="1">
@@ -2391,7 +2418,7 @@
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="3">
         <v>580</v>
       </c>
       <c r="C64" s="1">
@@ -2421,7 +2448,7 @@
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="3">
         <v>275</v>
       </c>
       <c r="C65" s="1">
@@ -2451,7 +2478,7 @@
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="3">
         <v>1899.66</v>
       </c>
       <c r="C66" s="1">
@@ -2480,7 +2507,7 @@
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="3">
         <v>1099.33</v>
       </c>
       <c r="C67" s="1">
@@ -2503,6 +2530,325 @@
       </c>
       <c r="I67" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="3">
+        <v>95</v>
+      </c>
+      <c r="C68" s="1">
+        <v>40</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="2">
+        <v>43104.833471076388</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3.84</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="1">
+        <v>6.1440000000000002E-3</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="2">
+        <v>43108.624968136573</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1.457668E-2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.99840256000000005</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2.332E-5</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="2">
+        <v>43133.829499791667</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="4">
+        <v>2.3289999999999999E-5</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.5948900000000001E-3</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="2">
+        <v>43133.829499814812</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="4">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2.5500000000000001E-6</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="2">
+        <v>43133.829499872685</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1.35E-2</v>
+      </c>
+      <c r="C73" s="1">
+        <v>300</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2.16E-5</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="2">
+        <v>43133.837966678242</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="4">
+        <v>5.2919999999999998E-3</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1">
+        <v>8.4700000000000002E-6</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="2">
+        <v>43161.49839872685</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="4">
+        <v>4.9319999999999998E-3</v>
+      </c>
+      <c r="C75" s="1">
+        <v>60</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1.2823000000000001E-5</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="2">
+        <v>43161.514861527779</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="4">
+        <v>2.9952000000000001E-4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.9968099999999999E-3</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4.7999999999999996E-7</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="2">
+        <v>43213.265020706021</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="4">
+        <v>4.7999999999999996E-7</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3.18E-6</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="2">
+        <v>43213.265020902778</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1.6900000000000001E-3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2.7E-6</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="2">
+        <v>43215.014994143516</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Project Onix.xlsx
+++ b/Project Onix.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$250</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="84">
   <si>
     <t>Type</t>
   </si>
@@ -228,16 +231,65 @@
   </si>
   <si>
     <t>Kraken</t>
+  </si>
+  <si>
+    <t>DRGN</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>NEBL</t>
+  </si>
+  <si>
+    <t>CVC</t>
+  </si>
+  <si>
+    <t>NANO</t>
+  </si>
+  <si>
+    <t>NEO</t>
+  </si>
+  <si>
+    <t>REQ</t>
+  </si>
+  <si>
+    <t>PRL</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>QTUM</t>
+  </si>
+  <si>
+    <t>VET</t>
+  </si>
+  <si>
+    <t>Kucoin</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>BNB</t>
+  </si>
+  <si>
+    <t>Binance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="173" formatCode="0.00000000"/>
-    <numFmt numFmtId="175" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -268,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,10 +331,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -562,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,10 +631,10 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -600,7 +658,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -629,7 +687,7 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -658,7 +716,7 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -687,7 +745,7 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -716,7 +774,7 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -745,7 +803,7 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -774,7 +832,7 @@
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -803,7 +861,7 @@
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -832,7 +890,7 @@
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -861,7 +919,7 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -890,7 +948,7 @@
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -919,7 +977,7 @@
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -948,7 +1006,7 @@
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -977,7 +1035,7 @@
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1006,7 +1064,7 @@
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1035,7 +1093,7 @@
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1064,7 +1122,7 @@
       <c r="F17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1093,7 +1151,7 @@
       <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1122,7 +1180,7 @@
       <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1151,7 +1209,7 @@
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1180,7 +1238,7 @@
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1209,7 +1267,7 @@
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1238,7 +1296,7 @@
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1267,7 +1325,7 @@
       <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1296,7 +1354,7 @@
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1325,7 +1383,7 @@
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -1354,7 +1412,7 @@
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1383,7 +1441,7 @@
       <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -1412,7 +1470,7 @@
       <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -1441,7 +1499,7 @@
       <c r="F30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -1470,7 +1528,7 @@
       <c r="F31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -1499,7 +1557,7 @@
       <c r="F32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -1528,7 +1586,7 @@
       <c r="F33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -1557,7 +1615,7 @@
       <c r="F34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -1586,7 +1644,7 @@
       <c r="F35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -1615,7 +1673,7 @@
       <c r="F36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -1644,7 +1702,7 @@
       <c r="F37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -1673,7 +1731,7 @@
       <c r="F38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -1702,7 +1760,7 @@
       <c r="F39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -1731,7 +1789,7 @@
       <c r="F40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -1760,7 +1818,7 @@
       <c r="F41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -1789,7 +1847,7 @@
       <c r="F42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -1818,7 +1876,7 @@
       <c r="F43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -1847,7 +1905,7 @@
       <c r="F44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -1876,7 +1934,7 @@
       <c r="F45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -1905,7 +1963,7 @@
       <c r="F46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -1934,7 +1992,7 @@
       <c r="F47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -1963,7 +2021,7 @@
       <c r="F48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -1992,7 +2050,7 @@
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -2021,7 +2079,7 @@
       <c r="F50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -2035,7 +2093,7 @@
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="6">
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="C51" s="1">
@@ -2050,7 +2108,7 @@
       <c r="F51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -2064,7 +2122,7 @@
       <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="6">
         <v>2.7521999999999998E-3</v>
       </c>
       <c r="C52" s="1">
@@ -2079,7 +2137,7 @@
       <c r="F52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -2108,7 +2166,7 @@
       <c r="F53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -2137,7 +2195,7 @@
       <c r="F54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -2166,7 +2224,7 @@
       <c r="F55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -2195,7 +2253,7 @@
       <c r="F56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -2224,7 +2282,7 @@
       <c r="F57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -2254,7 +2312,7 @@
       <c r="F58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -2284,7 +2342,7 @@
       <c r="F59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -2314,7 +2372,7 @@
       <c r="F60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -2344,7 +2402,7 @@
       <c r="F61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -2374,7 +2432,7 @@
       <c r="F62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -2404,7 +2462,7 @@
       <c r="F63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="2" t="s">
         <v>64</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -2434,7 +2492,7 @@
       <c r="F64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -2464,7 +2522,7 @@
       <c r="F65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -2493,7 +2551,7 @@
       <c r="F66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -2522,7 +2580,7 @@
       <c r="F67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -2850,6 +2908,5084 @@
       <c r="I78" s="1" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="6">
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E79" s="1">
+        <v>9.9000000000000005E-7</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1.4722299999999999E-3</v>
+      </c>
+      <c r="C80" s="1">
+        <v>8.7736999999999996E-2</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1.4699999999999999E-6</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43109.306944444441</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1.47076E-3</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4.4688999999999997</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4.4688999999999996E-3</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="2">
+        <v>43109.674305555556</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2.5287999999999999E-3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.14857799999999999</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2.5299999999999999E-6</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="2">
+        <v>43110.25277777778</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2.5262100000000001E-3</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3.9472</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="1">
+        <v>3.9471999999999997E-3</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="2">
+        <v>43110.443055555559</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2.026758E-2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1.9432</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2.0270000000000001E-5</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="2">
+        <v>43112.594444444447</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2.0247299999999999E-2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.75115200000000004</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E85" s="1">
+        <v>7.5115000000000002E-4</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="2">
+        <v>43112.59652777778</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.10946226000000001</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1.0946E-4</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="2">
+        <v>43113.09375</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="1">
+        <v>5.3260399999999998E-3</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="1">
+        <v>5.3299999999999998E-6</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="2">
+        <v>43113.136805555558</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="1">
+        <v>3.5324599999999999E-3</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3.996</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E88" s="1">
+        <v>3.9960000000000004E-3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="2">
+        <v>43113.155555555553</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="1">
+        <v>5.3075400000000003E-3</v>
+      </c>
+      <c r="C89" s="1">
+        <v>6.0039999999999996</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E89" s="1">
+        <v>6.0039999999999998E-3</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="2">
+        <v>43113.15902777778</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1.7017499999999999E-3</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="2">
+        <v>43114.164583333331</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1.8683300000000001E-3</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.17625299999999999</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1.7625E-4</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="2">
+        <v>43114.810416666667</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1.7506900000000001E-3</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.165155</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1.6516E-4</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="2">
+        <v>43114.810416666667</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="1">
+        <v>46.726042</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.34106599999999998</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E93" s="1">
+        <v>4.6726040000000003E-2</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="2">
+        <v>43114.859722222223</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1">
+        <v>46.67930887</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3.6182699999999998E-3</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="1">
+        <v>3.6200000000000001E-6</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="2">
+        <v>43114.934027777781</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3.6146199999999998E-3</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.32360299999999997</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95" s="1">
+        <v>3.2360000000000001E-4</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="2">
+        <v>43114.956250000003</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3.6823899999999998E-3</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.32327899999999998</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="2">
+        <v>43114.995138888888</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="1">
+        <v>3.6787299999999998E-3</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.32297900000000002</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3.2298E-4</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="2">
+        <v>43115.152777777781</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="1">
+        <v>3.1054500000000001E-3</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.26474399999999998</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E98" s="1">
+        <v>3.1099999999999999E-6</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="2">
+        <v>43115.197916666664</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="1">
+        <v>6.7931999999999997E-4</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5.7912999999999999E-2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E99" s="1">
+        <v>6.7999999999999995E-7</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="2">
+        <v>43115.200694444444</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="1">
+        <v>3.7809900000000001E-3</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.31719700000000001</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3.1720000000000001E-4</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="2">
+        <v>43115.252083333333</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" s="1">
+        <v>4.1162600000000001E-3</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.31687900000000002</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="1">
+        <v>4.1200000000000004E-6</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="2">
+        <v>43115.329861111109</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1">
+        <v>4.1121300000000003E-3</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.33058399999999999</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E102" s="1">
+        <v>3.3058000000000002E-4</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="2">
+        <v>43115.352083333331</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" s="1">
+        <v>3.9861999999999996E-3</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.33025399999999999</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E103" s="1">
+        <v>3.9899999999999999E-6</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="2">
+        <v>43115.361111111109</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3.9822199999999999E-3</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.29607600000000001</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E104" s="1">
+        <v>2.9608E-4</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="2">
+        <v>43116.112500000003</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="1">
+        <v>3.9930299999999998E-3</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.29577999999999999</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E105" s="1">
+        <v>3.9899999999999999E-6</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="2">
+        <v>43116.120138888888</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="1">
+        <v>3.9633899999999998E-3</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.288246</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2.8824999999999999E-4</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="2">
+        <v>43116.157638888886</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="1">
+        <v>4.0320299999999998E-3</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.28795700000000002</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" s="1">
+        <v>4.0300000000000004E-6</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="2">
+        <v>43116.172222222223</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1">
+        <v>4.0356300000000001E-3</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.29915700000000001</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2.9915999999999997E-4</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="2">
+        <v>43116.279166666667</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="1">
+        <v>4.2139100000000004E-3</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.29885800000000001</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E109" s="1">
+        <v>4.2100000000000003E-6</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="2">
+        <v>43116.304861111108</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="1">
+        <v>92.068992100000003</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.100512</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="1">
+        <v>9.2068990000000003E-2</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="2">
+        <v>43117.232638888891</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1">
+        <v>4.6652310200000002</v>
+      </c>
+      <c r="C111" s="1">
+        <v>5.1209999999999997E-3</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="1">
+        <v>5.1200000000000001E-6</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="2">
+        <v>43117.244444444441</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="1">
+        <v>87.310240289999996</v>
+      </c>
+      <c r="C112" s="1">
+        <v>9.5839999999999995E-2</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="1">
+        <v>9.5840000000000004E-5</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="2">
+        <v>43117.244444444441</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1">
+        <v>9.1100000000000003E-4</v>
+      </c>
+      <c r="C113" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="2">
+        <v>43117.244444444441</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="1">
+        <v>18.513212459999998</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2.1204000000000001E-2</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1.8513209999999999E-2</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="2">
+        <v>43117.252083333333</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" s="1">
+        <v>69.547653839999995</v>
+      </c>
+      <c r="C115" s="1">
+        <v>7.9656000000000005E-2</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="1">
+        <v>6.9547650000000003E-2</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="2">
+        <v>43117.252083333333</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="1">
+        <v>8.7310000000000003E-4</v>
+      </c>
+      <c r="C116" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="1">
+        <v>8.7000000000000003E-7</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="2">
+        <v>43117.252083333333</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="1">
+        <v>81.083809880000004</v>
+      </c>
+      <c r="C117" s="1">
+        <v>9.3847E-2</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="1">
+        <v>9.3850000000000004E-5</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="2">
+        <v>43117.263194444444</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1">
+        <v>6.8904001600000004</v>
+      </c>
+      <c r="C118" s="1">
+        <v>7.9749999999999995E-3</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="1">
+        <v>7.9799999999999998E-6</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="2">
+        <v>43117.263194444444</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" s="1">
+        <v>87.886944</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.10172100000000001</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="1">
+        <v>8.7886939999999997E-2</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="2">
+        <v>43117.265277777777</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="1">
+        <v>87.798906759999994</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.103146</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1.0315E-4</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="2">
+        <v>43117.26666666667</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="1">
+        <v>87.607339229999994</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.10304199999999999</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="1">
+        <v>8.7607340000000006E-2</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="2">
+        <v>43117.267361111109</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="1">
+        <v>87.519004229999993</v>
+      </c>
+      <c r="C122" s="1">
+        <v>9.1583999999999999E-2</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="1">
+        <v>9.1580000000000001E-5</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="2">
+        <v>43117.283333333333</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1">
+        <v>9.1492889999999993E-2</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.65351599999999999</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E123" s="1">
+        <v>6.5351999999999999E-4</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="2">
+        <v>43117.324999999997</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2.8000000000000002E-7</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="2">
+        <v>43117.325694444444</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="1">
+        <v>9.3032610000000002E-2</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.65286500000000003</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E125" s="1">
+        <v>9.3029999999999995E-5</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="2">
+        <v>43117.331944444442</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="1">
+        <v>9.2939590000000002E-2</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.65914600000000001</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E126" s="1">
+        <v>6.5914999999999995E-4</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="2">
+        <v>43117.334722222222</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="1">
+        <v>9.4822130000000004E-2</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.65848700000000004</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E127" s="1">
+        <v>9.4820000000000004E-5</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="2">
+        <v>43117.338194444441</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="1">
+        <v>9.4727320000000004E-2</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.65736300000000003</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E128" s="1">
+        <v>6.5735999999999995E-4</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="2">
+        <v>43117.34375</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="1">
+        <v>9.456552E-2</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.65670499999999998</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E129" s="1">
+        <v>9.4569999999999997E-5</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="2">
+        <v>43117.349305555559</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="1">
+        <v>9.447092E-2</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.67477299999999996</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E130" s="1">
+        <v>6.7476999999999999E-4</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="2">
+        <v>43117.355555555558</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" s="1">
+        <v>9.57118E-2</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.67409799999999997</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" s="1">
+        <v>9.5710000000000004E-5</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="2">
+        <v>43117.371527777781</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="1">
+        <v>6.8495399999999998E-2</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.38052999999999998</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="1">
+        <v>6.8499999999999998E-5</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="2">
+        <v>43117.380555555559</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4.7764699999999997E-3</v>
+      </c>
+      <c r="C133" s="1">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="1">
+        <v>4.78E-6</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="2">
+        <v>43119.170138888891</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="1">
+        <v>103.3762227</v>
+      </c>
+      <c r="C134" s="1">
+        <v>8.9994099999999994E-3</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0.10337622</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="2">
+        <v>43119.229166666664</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="1">
+        <v>103.2736311</v>
+      </c>
+      <c r="C135" s="1">
+        <v>9.0409800000000005E-3</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" s="1">
+        <v>9.0399999999999998E-6</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="2">
+        <v>43119.230555555558</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" s="1">
+        <v>103.48800180000001</v>
+      </c>
+      <c r="C136" s="1">
+        <v>9.0319400000000005E-3</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0.103488</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="2">
+        <v>43119.231249999997</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="1">
+        <v>103.3845479</v>
+      </c>
+      <c r="C137" s="1">
+        <v>9.06882E-3</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="1">
+        <v>9.0699999999999996E-6</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="2">
+        <v>43119.23333333333</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" s="1">
+        <v>103.28194670000001</v>
+      </c>
+      <c r="C138" s="1">
+        <v>9.9992999999999999E-2</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0.10328195</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="2">
+        <v>43119.237500000003</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="1">
+        <v>103.1786207</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.101419</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1.0142E-4</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="2">
+        <v>43119.245138888888</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" s="1">
+        <v>47.116601240000001</v>
+      </c>
+      <c r="C140" s="1">
+        <v>4.2661599999999997E-3</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="1">
+        <v>4.7116600000000002E-2</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="2">
+        <v>43119.255555555559</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" s="1">
+        <v>52.94520155</v>
+      </c>
+      <c r="C141" s="1">
+        <v>4.7935900000000004E-3</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="1">
+        <v>5.2945199999999998E-2</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="2">
+        <v>43119.255555555559</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0.65563519999999997</v>
+      </c>
+      <c r="C142" s="1">
+        <v>6.1160000000000004E-5</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="1">
+        <v>5.9999999999999995E-8</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="2">
+        <v>43119.259722222225</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="1">
+        <v>99.306220800000006</v>
+      </c>
+      <c r="C143" s="1">
+        <v>9.2636400000000001E-3</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" s="1">
+        <v>9.2599999999999994E-6</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="2">
+        <v>43119.259722222225</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66.763124860000005</v>
+      </c>
+      <c r="C144" s="1">
+        <v>6.8474999999999994E-2</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="1">
+        <v>6.6763119999999995E-2</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="2">
+        <v>43119.26666666667</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B145" s="1">
+        <v>32.02094993</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3.2842000000000003E-2</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="1">
+        <v>3.2020949999999999E-2</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="2">
+        <v>43119.268055555556</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="1">
+        <v>98.684553859999994</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.10301100000000001</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1.0301E-4</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" s="2">
+        <v>43119.270138888889</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1.0560000000000001E-4</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1.1000000000000001E-7</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="2">
+        <v>43119.275000000001</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148" s="1">
+        <v>98.372294749999995</v>
+      </c>
+      <c r="C148" s="1">
+        <v>9.3154699999999993E-3</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="1">
+        <v>9.8372290000000001E-2</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="2">
+        <v>43119.275000000001</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="1">
+        <v>98.274761920000003</v>
+      </c>
+      <c r="C149" s="1">
+        <v>8.9482999999999993E-3</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" s="1">
+        <v>8.9500000000000007E-6</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="2">
+        <v>43119.647916666669</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" s="1">
+        <v>97.438914980000007</v>
+      </c>
+      <c r="C150" s="1">
+        <v>8.9393500000000004E-3</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" s="1">
+        <v>9.7438910000000004E-2</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="2">
+        <v>43119.652777777781</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="1">
+        <v>97.341455690000004</v>
+      </c>
+      <c r="C151" s="1">
+        <v>8.4600600000000001E-3</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="1">
+        <v>8.4600000000000003E-6</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="2">
+        <v>43119.939583333333</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152" s="1">
+        <v>96.356691600000005</v>
+      </c>
+      <c r="C152" s="1">
+        <v>8.4516000000000001E-3</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" s="1">
+        <v>9.6356689999999995E-2</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="2">
+        <v>43119.95</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="1">
+        <v>96.260304000000005</v>
+      </c>
+      <c r="C153" s="1">
+        <v>8.5946700000000004E-3</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E153" s="1">
+        <v>8.5900000000000008E-6</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="2">
+        <v>43120.077777777777</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" s="1">
+        <v>95.46003494</v>
+      </c>
+      <c r="C154" s="1">
+        <v>8.5860799999999994E-3</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E154" s="1">
+        <v>9.5460030000000001E-2</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" s="2">
+        <v>43120.114583333336</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="1">
+        <v>95.36460314</v>
+      </c>
+      <c r="C155" s="1">
+        <v>8.5482800000000001E-3</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" s="1">
+        <v>8.5499999999999995E-6</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" s="2">
+        <v>43120.138194444444</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B156" s="1">
+        <v>3.4426653200000001</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3.1038000000000002E-4</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E156" s="1">
+        <v>3.4426700000000001E-3</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" s="2">
+        <v>43120.147222222222</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B157" s="1">
+        <v>5.5803832399999997</v>
+      </c>
+      <c r="C157" s="1">
+        <v>5.0310999999999997E-4</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157" s="1">
+        <v>5.5803800000000002E-3</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="2">
+        <v>43120.147222222222</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B158" s="1">
+        <v>85.697720570000001</v>
+      </c>
+      <c r="C158" s="1">
+        <v>7.7262399999999997E-3</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" s="1">
+        <v>8.5697720000000005E-2</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" s="2">
+        <v>43120.147222222222</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="1">
+        <v>94.625997150000003</v>
+      </c>
+      <c r="C159" s="1">
+        <v>8.5945499999999994E-3</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E159" s="1">
+        <v>8.5900000000000008E-6</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" s="2">
+        <v>43120.155555555553</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B160" s="1">
+        <v>55.107180569999997</v>
+      </c>
+      <c r="C160" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E160" s="1">
+        <v>5.5107179999999999E-2</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" s="2">
+        <v>43120.165277777778</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B161" s="1">
+        <v>25.631672259999998</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2.32562E-3</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E161" s="1">
+        <v>2.5631669999999999E-2</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161" s="2">
+        <v>43120.165972222225</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B162" s="1">
+        <v>13.890756789999999</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1.26034E-3</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1.389076E-2</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162" s="2">
+        <v>43120.165972222225</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="1">
+        <v>8.3568099999999994</v>
+      </c>
+      <c r="C163" s="1">
+        <v>7.5971000000000003E-4</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="1">
+        <v>7.6000000000000003E-7</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G163" s="2">
+        <v>43120.192361111112</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" s="1">
+        <v>19.20191779</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1.70079E-3</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164" s="2">
+        <v>43120.238194444442</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="1">
+        <v>52.64184556</v>
+      </c>
+      <c r="C165" s="1">
+        <v>4.65651E-3</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="1">
+        <v>4.6600000000000003E-6</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" s="2">
+        <v>43120.242361111108</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="1">
+        <v>14.33440085</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1.26797E-3</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1.2699999999999999E-6</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" s="2">
+        <v>43120.243055555555</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167" s="1">
+        <v>47.393024009999998</v>
+      </c>
+      <c r="C167" s="1">
+        <v>4.2315199999999999E-3</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E167" s="1">
+        <v>4.7393020000000001E-2</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" s="2">
+        <v>43120.247916666667</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="1">
+        <v>41.656171000000001</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0.28827799999999998</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E168" s="1">
+        <v>2.8828000000000002E-4</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" s="2">
+        <v>43120.918055555558</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" s="1">
+        <v>5.6836184999999997</v>
+      </c>
+      <c r="C169" s="1">
+        <v>3.9333E-2</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E169" s="1">
+        <v>3.9329999999999998E-5</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169" s="2">
+        <v>43120.918749999997</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="1">
+        <v>5.9245000000000001E-3</v>
+      </c>
+      <c r="C170" s="1">
+        <v>4.1E-5</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E170" s="1">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" s="2">
+        <v>43120.918749999997</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2.1785639999999998E-2</v>
+      </c>
+      <c r="C171" s="1">
+        <v>0.16197500000000001</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E171" s="1">
+        <v>2.179E-5</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" s="2">
+        <v>43121.063888888886</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2.1712800000000001E-2</v>
+      </c>
+      <c r="C172" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E172" s="1">
+        <v>4.36E-2</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" s="2">
+        <v>43121.065972222219</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="1">
+        <v>3.14E-3</v>
+      </c>
+      <c r="C173" s="1">
+        <v>2</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E173" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" s="2">
+        <v>43121.132638888892</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174" s="1">
+        <v>2.9041800000000001E-3</v>
+      </c>
+      <c r="C174" s="1">
+        <v>5.9028</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E174" s="1">
+        <v>2.9000000000000002E-6</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" s="2">
+        <v>43121.784722222219</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B175" s="1">
+        <v>7.5897899999999999E-3</v>
+      </c>
+      <c r="C175" s="1">
+        <v>15.426399999999999</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E175" s="1">
+        <v>7.5900000000000002E-6</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" s="2">
+        <v>43121.786805555559</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1.92606291</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1.5285E-2</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1.9260600000000001E-3</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" s="2">
+        <v>43122.017361111109</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45.595770000000002</v>
+      </c>
+      <c r="C177" s="1">
+        <v>4.1450699999999998E-3</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177" s="1">
+        <v>4.5595770000000001E-2</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177" s="2">
+        <v>43122.018055555556</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178" s="1">
+        <v>8.8656858500000002</v>
+      </c>
+      <c r="C178" s="1">
+        <v>7.0357000000000003E-2</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E178" s="1">
+        <v>8.8656900000000007E-3</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" s="2">
+        <v>43122.018055555556</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B179" s="1">
+        <v>109.7514851</v>
+      </c>
+      <c r="C179" s="1">
+        <v>0.110303</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0.10975148999999999</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179" s="2">
+        <v>43122.018750000003</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="1">
+        <v>60.339760320000003</v>
+      </c>
+      <c r="C180" s="1">
+        <v>5.5352500000000002E-3</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E180" s="1">
+        <v>5.5400000000000003E-6</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G180" s="2">
+        <v>43122.051388888889</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="1">
+        <v>7.9326812000000002</v>
+      </c>
+      <c r="C181" s="1">
+        <v>8.012E-3</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="1">
+        <v>8.0099999999999995E-6</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" s="2">
+        <v>43122.058333333334</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" s="1">
+        <v>97.700286910000003</v>
+      </c>
+      <c r="C182" s="1">
+        <v>9.4033000000000005E-2</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" s="1">
+        <v>9.4030000000000006E-5</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G182" s="2">
+        <v>43122.138888888891</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B183" s="1">
+        <v>55.573584390000001</v>
+      </c>
+      <c r="C183" s="1">
+        <v>5.5297100000000002E-3</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="1">
+        <v>5.5573579999999997E-2</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G183" s="2">
+        <v>43123.231944444444</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="1">
+        <v>55.518056000000001</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0.47049200000000002</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E184" s="1">
+        <v>4.7049E-4</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184" s="2">
+        <v>43123.283333333333</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B185" s="1">
+        <v>5.6402500000000003E-3</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0.47002100000000002</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E185" s="1">
+        <v>5.6400000000000002E-6</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G185" s="2">
+        <v>43124.821527777778</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1.34224E-3</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0.11185299999999999</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1.1184999999999999E-4</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G186" s="2">
+        <v>43126.67083333333</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B187" s="1">
+        <v>10.33268309</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1.12936E-3</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1.033268E-2</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G187" s="2">
+        <v>43133.286805555559</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B188" s="1">
+        <v>10.33268309</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1.12936E-3</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1.033268E-2</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G188" s="2">
+        <v>43133.286805555559</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B189" s="1">
+        <v>15.843856069999999</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1.7317299999999999E-3</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1.5843860000000001E-2</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G189" s="2">
+        <v>43133.286805555559</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2.7623111100000002</v>
+      </c>
+      <c r="C190" s="1">
+        <v>3.0192000000000001E-4</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E190" s="1">
+        <v>2.76231E-3</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G190" s="2">
+        <v>43133.286805555559</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="1">
+        <v>25.755663999999999</v>
+      </c>
+      <c r="C191" s="1">
+        <v>2.9267799999999999E-3</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E191" s="1">
+        <v>2.9299999999999999E-6</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G191" s="2">
+        <v>43133.379166666666</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" s="1">
+        <v>13.476672000000001</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1.53144E-3</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1.53E-6</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G192" s="2">
+        <v>43133.395138888889</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B193" s="1">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E193" s="1">
+        <v>2.0499999999999999E-6</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193" s="2">
+        <v>43134.222222222219</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="1">
+        <v>6.50171E-3</v>
+      </c>
+      <c r="C194" s="1">
+        <v>3.1258219999999999</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E194" s="1">
+        <v>3.1258200000000001E-3</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G194" s="2">
+        <v>43134.229861111111</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B195" s="1">
+        <v>2.6185599999999998E-3</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1.483611</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E195" s="1">
+        <v>2.6199999999999999E-6</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G195" s="2">
+        <v>43135.099305555559</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2.8929699999999999E-3</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1.6390849999999999</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E196" s="1">
+        <v>2.8899999999999999E-6</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G196" s="2">
+        <v>43135.099305555559</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1.0161E-2</v>
+      </c>
+      <c r="C197" s="1">
+        <v>9</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E197" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G197" s="2">
+        <v>43141.138888888891</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1.8750099999999999E-2</v>
+      </c>
+      <c r="C198" s="1">
+        <v>14.2478</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1.42478E-2</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198" s="2">
+        <v>43141.148611111108</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2.172611E-2</v>
+      </c>
+      <c r="C199" s="1">
+        <v>16.5092</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1.6509200000000002E-2</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G199" s="2">
+        <v>43141.148611111108</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" s="1">
+        <v>5.1305839999999998E-2</v>
+      </c>
+      <c r="C200" s="1">
+        <v>38.986199999999997</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E200" s="1">
+        <v>3.8986199999999999E-2</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" s="2">
+        <v>43141.148611111108</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G201" s="2">
+        <v>43157.84097222222</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1.4180999999999999E-2</v>
+      </c>
+      <c r="C202" s="1">
+        <v>32.6</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E202" s="1">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G202" s="2">
+        <v>43158.238194444442</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1.1168610000000001E-2</v>
+      </c>
+      <c r="C203" s="1">
+        <v>0.64121099999999998</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E203" s="1">
+        <v>6.4121000000000002E-4</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G203" s="2">
+        <v>43160.254861111112</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1.05597E-3</v>
+      </c>
+      <c r="C204" s="1">
+        <v>6.9040000000000004E-3</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1.06E-6</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G204" s="2">
+        <v>43160.307638888888</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B205" s="1">
+        <v>1.5881869999999999E-2</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0.103837</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1.588E-5</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G205" s="2">
+        <v>43160.307638888888</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B206" s="1">
+        <v>1.178647E-2</v>
+      </c>
+      <c r="C206" s="1">
+        <v>0.64056900000000006</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1.1790000000000001E-5</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G206" s="2">
+        <v>43160.835416666669</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" s="1">
+        <v>1.673521E-2</v>
+      </c>
+      <c r="C207" s="1">
+        <v>47.951900000000002</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E207" s="1">
+        <v>4.7951899999999999E-2</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G207" s="2">
+        <v>43161.127083333333</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="1">
+        <v>1.679E-5</v>
+      </c>
+      <c r="C208" s="1">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E208" s="1">
+        <v>4.8099999999999997E-5</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G208" s="2">
+        <v>43161.127083333333</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" s="1">
+        <v>1.56E-4</v>
+      </c>
+      <c r="C209" s="1">
+        <v>3</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E209" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G209" s="2">
+        <v>43163.382638888892</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="1">
+        <v>1.3240989999999999E-2</v>
+      </c>
+      <c r="C210" s="1">
+        <v>46.573999999999998</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E210" s="1">
+        <v>4.6573999999999997E-2</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G210" s="2">
+        <v>43174.445138888892</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B211" s="1">
+        <v>1.5755000000000002E-2</v>
+      </c>
+      <c r="C211" s="1">
+        <v>46</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E211" s="1">
+        <v>1.5760000000000002E-5</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G211" s="2">
+        <v>43179.150694444441</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2.827557E-2</v>
+      </c>
+      <c r="C212" s="1">
+        <v>70.706599999999995</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E212" s="1">
+        <v>2.828E-5</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G212" s="2">
+        <v>43180.382638888892</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="1">
+        <v>4.3983040000000001E-2</v>
+      </c>
+      <c r="C213" s="1">
+        <v>2.609</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E213" s="1">
+        <v>2.6090000000000002E-3</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G213" s="2">
+        <v>43180.685416666667</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="1">
+        <v>3.4699999999999998E-6</v>
+      </c>
+      <c r="C214" s="1">
+        <v>2.0599999999999999E-4</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E214" s="1">
+        <v>2.1E-7</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G214" s="2">
+        <v>43180.685416666667</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1.7982E-4</v>
+      </c>
+      <c r="C215" s="1">
+        <v>2.9969999999999999</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1.8E-7</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G215" s="2">
+        <v>43182.740972222222</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B216" s="1">
+        <v>7.3853929999999998E-2</v>
+      </c>
+      <c r="C216" s="1">
+        <v>3.3569969999999998</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E216" s="1">
+        <v>7.3850000000000006E-5</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G216" s="2">
+        <v>43183.179861111108</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" s="1">
+        <v>7.3938630000000005E-2</v>
+      </c>
+      <c r="C217" s="1">
+        <v>5.0902640000000003</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E217" s="1">
+        <v>5.0902600000000001E-3</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G217" s="2">
+        <v>43185.28125</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" s="1">
+        <v>2.109E-5</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1.4519999999999999E-3</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1.4500000000000001E-6</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G218" s="2">
+        <v>43185.281944444447</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B219" s="1">
+        <v>2.073444E-2</v>
+      </c>
+      <c r="C219" s="1">
+        <v>34.557400000000001</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E219" s="1">
+        <v>2.073E-5</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G219" s="2">
+        <v>43200.806250000001</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" s="1">
+        <v>2.071371E-2</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1.836322</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1.83632E-3</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G220" s="2">
+        <v>43202.924305555556</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B221" s="1">
+        <v>0.10236059</v>
+      </c>
+      <c r="C221" s="1">
+        <v>80.662400000000005</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1.0236E-4</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G221" s="2">
+        <v>43204.345833333333</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" s="1">
+        <v>9.7931300000000006E-3</v>
+      </c>
+      <c r="C222" s="1">
+        <v>7.0682999999999998</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E222" s="1">
+        <v>7.0682999999999996E-3</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G222" s="2">
+        <v>43204.822916666664</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1.6922E-2</v>
+      </c>
+      <c r="C223" s="1">
+        <v>1</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G223" s="2">
+        <v>43204.827777777777</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="1">
+        <v>1.2801E-2</v>
+      </c>
+      <c r="C224" s="1">
+        <v>10</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E224" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G224" s="2">
+        <v>43204.997916666667</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="1">
+        <v>1.2019999999999999E-2</v>
+      </c>
+      <c r="C225" s="1">
+        <v>10</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E225" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G225" s="2">
+        <v>43205.174305555556</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1.6577999999999999E-2</v>
+      </c>
+      <c r="C226" s="1">
+        <v>1</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G226" s="2">
+        <v>43205.359722222223</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1.6080000000000001E-2</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G227" s="2">
+        <v>43205.375</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B228" s="1">
+        <v>1.6039399999999999E-2</v>
+      </c>
+      <c r="C228" s="1">
+        <v>1</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1.6039999999999999E-5</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G228" s="2">
+        <v>43205.459722222222</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B229" s="1">
+        <v>1.321751E-2</v>
+      </c>
+      <c r="C229" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1.322E-5</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G229" s="2">
+        <v>43208.088888888888</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" s="1">
+        <v>1.0014E-2</v>
+      </c>
+      <c r="C230" s="1">
+        <v>10</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E230" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G230" s="2">
+        <v>43215.963888888888</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B231" s="1">
+        <v>4.1537400000000004E-3</v>
+      </c>
+      <c r="C231" s="1">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="1">
+        <v>4.1500000000000001E-6</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G231" s="2">
+        <v>43219.405555555553</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" s="1">
+        <v>8.0499999999999999E-3</v>
+      </c>
+      <c r="C232" s="1">
+        <v>10</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E232" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G232" s="2">
+        <v>43253.042361111111</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="C233" s="1">
+        <v>10</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E233" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G233" s="2">
+        <v>43255.179166666669</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" s="1">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="C234" s="1">
+        <v>10</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E234" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G234" s="2">
+        <v>43255.796527777777</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C235" s="1">
+        <v>10</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E235" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G235" s="2">
+        <v>43260.189583333333</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C236" s="1">
+        <v>10</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E236" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G236" s="2">
+        <v>43261.963888888888</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="1">
+        <v>5.1277400000000004E-3</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0.17421200000000001</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1.7421E-4</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G237" s="2">
+        <v>43263.519444444442</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B238" s="1">
+        <v>1.7642700000000001E-3</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1.0978000000000001</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1.7600000000000001E-6</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G238" s="2">
+        <v>43268.651388888888</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2.8991999999999999E-4</v>
+      </c>
+      <c r="C239" s="1">
+        <v>0.1804</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="1">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G239" s="2">
+        <v>43268.651388888888</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2.319E-4</v>
+      </c>
+      <c r="C240" s="1">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="1">
+        <v>2.2999999999999999E-7</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G240" s="2">
+        <v>43268.651388888888</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B241" s="1">
+        <v>2.7835000000000002E-4</v>
+      </c>
+      <c r="C241" s="1">
+        <v>0.17319999999999999</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="1">
+        <v>2.8000000000000002E-7</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G241" s="2">
+        <v>43268.651388888888</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B242" s="1">
+        <v>1.9478E-4</v>
+      </c>
+      <c r="C242" s="1">
+        <v>0.1212</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1.9000000000000001E-7</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G242" s="2">
+        <v>43268.651388888888</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B243" s="1">
+        <v>4.5497000000000002E-4</v>
+      </c>
+      <c r="C243" s="1">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="1">
+        <v>4.4999999999999998E-7</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G243" s="2">
+        <v>43268.652777777781</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2.8685000000000001E-4</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0.21340000000000001</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E244" s="1">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G244" s="2">
+        <v>43276.779861111114</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2.8656999999999999E-4</v>
+      </c>
+      <c r="C245" s="1">
+        <v>5.5449999999999999</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E245" s="1">
+        <v>5.5449999999999996E-3</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G245" s="2">
+        <v>43277.075694444444</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B246" s="1">
+        <v>6.0025399999999998E-3</v>
+      </c>
+      <c r="C246" s="1">
+        <v>0.174037</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E246" s="1">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G246" s="2">
+        <v>43277.336805555555</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" s="1">
+        <v>5.9965599999999997E-3</v>
+      </c>
+      <c r="C247" s="1">
+        <v>183.3810398</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E247" s="1">
+        <v>0.18338104</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G247" s="2">
+        <v>43319.26666666667</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="1">
+        <v>8.0300000000000007E-3</v>
+      </c>
+      <c r="C248" s="1">
+        <v>174.56521738999999</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E248" s="1">
+        <v>0.17456521999999999</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G248" s="2">
+        <v>43419.289363425924</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="1">
+        <v>1.3794999999999999E-4</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1.6423E-2</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1.6419999999999999E-5</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G249" s="2">
+        <v>43419.310555555552</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" s="1">
+        <v>9.1833499999999998E-2</v>
+      </c>
+      <c r="C250" s="1">
+        <v>10.93256</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E250" s="1">
+        <v>1.0932559999999999E-2</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G250" s="2">
+        <v>43419.279606481483</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="7">
+        <v>3.2519999999999998</v>
+      </c>
+      <c r="C251" s="7">
+        <v>400</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E251" s="7">
+        <v>2.43757E-3</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B252" s="7">
+        <v>2.0758599999999999E-2</v>
+      </c>
+      <c r="C252" s="7">
+        <v>3.8300000000000001E-3</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1.5569999999999998E-5</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B253" s="7">
+        <v>6.6124000000000001</v>
+      </c>
+      <c r="C253" s="7">
+        <v>1.22</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E253" s="1">
+        <v>4.9592999999999998E-3</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G255" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Onix.xlsx
+++ b/Project Onix.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="4620" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$255</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="84">
   <si>
     <t>Type</t>
   </si>
@@ -320,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +341,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -620,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:I264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="98" workbookViewId="0">
+      <selection activeCell="F260" sqref="F260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7984,8 +7990,297 @@
         <v>83</v>
       </c>
     </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B254" s="8">
+        <v>0.10010156000000001</v>
+      </c>
+      <c r="C254" s="8">
+        <v>77.001199999999997</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E254" s="1">
+        <f>B254*0.1%</f>
+        <v>1.0010156000000001E-4</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G254" s="2">
+        <v>43398.936979166698</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" s="1">
+        <v>0.21340000000000001</v>
+      </c>
+      <c r="C255" s="1">
+        <v>8.6783000000001387E-2</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E255" s="1">
+        <v>0</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G255" s="2"/>
+      <c r="H255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B256" s="1">
+        <v>1.247126E-2</v>
+      </c>
+      <c r="C256" s="1">
+        <v>199.62</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E256" s="1">
+        <v>0</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G256" s="9">
+        <v>43173.23400462963</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B257" s="1">
+        <v>7.6968999999999996E-4</v>
+      </c>
+      <c r="C257" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G257" s="9">
+        <v>43173.233888888892</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" s="1">
+        <v>1.177432E-2</v>
+      </c>
+      <c r="C258" s="1">
+        <v>212.15</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E258" s="1">
+        <v>0</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G258" s="9">
+        <v>43161.444143518522</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B259" s="1">
+        <v>1.114684E-2</v>
+      </c>
+      <c r="C259" s="1">
+        <v>199.8</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G259" s="9">
+        <v>43160.25277777778</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260" s="1">
+        <v>1.1650000000000001E-2</v>
+      </c>
+      <c r="C260" s="1">
+        <v>200</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E260" s="1">
+        <v>0</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G260" s="9">
+        <v>43119.128912037035</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" s="1">
+        <v>5.5059999999999996E-3</v>
+      </c>
+      <c r="C261" s="1">
+        <v>911.59</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E261" s="1">
+        <v>0</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G261" s="9">
+        <v>43135.152141203704</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B262" s="1">
+        <v>4.14957E-3</v>
+      </c>
+      <c r="C262" s="1">
+        <v>807.23</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E262" s="1">
+        <v>0</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G262" s="9">
+        <v>43219.99019675926</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B263" s="1">
+        <v>3.2110200000000002E-3</v>
+      </c>
+      <c r="C263" s="1">
+        <v>679.71</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G263" s="9">
+        <v>43268.55976851852</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G264" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Onix.xlsx
+++ b/Project Onix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,9 +345,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I264"/>
+  <dimension ref="A1:I263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="98" workbookViewId="0">
-      <selection activeCell="F260" sqref="F260"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +637,7 @@
     <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8025,10 +8022,10 @@
         <v>9</v>
       </c>
       <c r="B255" s="1">
+        <v>8.6783000000001387E-2</v>
+      </c>
+      <c r="C255" s="1">
         <v>0.21340000000000001</v>
-      </c>
-      <c r="C255" s="1">
-        <v>8.6783000000001387E-2</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>78</v>
@@ -8039,7 +8036,9 @@
       <c r="F255" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G255" s="2"/>
+      <c r="G255" s="2">
+        <v>43114.810416666667</v>
+      </c>
       <c r="H255" s="1" t="s">
         <v>73</v>
       </c>
@@ -8066,7 +8065,7 @@
       <c r="F256" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G256" s="9">
+      <c r="G256" s="2">
         <v>43173.23400462963</v>
       </c>
       <c r="H256" s="1" t="s">
@@ -8095,7 +8094,7 @@
       <c r="F257" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G257" s="9">
+      <c r="G257" s="2">
         <v>43173.233888888892</v>
       </c>
       <c r="H257" s="1" t="s">
@@ -8124,7 +8123,7 @@
       <c r="F258" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G258" s="9">
+      <c r="G258" s="2">
         <v>43161.444143518522</v>
       </c>
       <c r="H258" s="1" t="s">
@@ -8153,7 +8152,7 @@
       <c r="F259" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G259" s="9">
+      <c r="G259" s="2">
         <v>43160.25277777778</v>
       </c>
       <c r="H259" s="1" t="s">
@@ -8182,7 +8181,7 @@
       <c r="F260" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G260" s="9">
+      <c r="G260" s="2">
         <v>43119.128912037035</v>
       </c>
       <c r="H260" s="1" t="s">
@@ -8211,7 +8210,7 @@
       <c r="F261" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G261" s="9">
+      <c r="G261" s="2">
         <v>43135.152141203704</v>
       </c>
       <c r="H261" s="1" t="s">
@@ -8240,7 +8239,7 @@
       <c r="F262" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G262" s="9">
+      <c r="G262" s="2">
         <v>43219.99019675926</v>
       </c>
       <c r="H262" s="1" t="s">
@@ -8269,7 +8268,7 @@
       <c r="F263" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G263" s="9">
+      <c r="G263" s="2">
         <v>43268.55976851852</v>
       </c>
       <c r="H263" s="1" t="s">
@@ -8278,9 +8277,6 @@
       <c r="I263" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G264" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
